--- a/demo/导表/windres3.xlsx
+++ b/demo/导表/windres3.xlsx
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turbine_capacity_each</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ongrid_power</t>
   </si>
   <si>
@@ -716,6 +712,10 @@
   </si>
   <si>
     <t>方案3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurbineCapacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM29" sqref="AM29"/>
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1339,7 +1339,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1435,30 +1435,30 @@
         <v>23</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2">
         <v>37567435</v>
@@ -1536,7 +1536,7 @@
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="2">
         <v>681</v>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="3" spans="1:40">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4">
         <v>37567103</v>
@@ -1649,7 +1649,7 @@
         <v>225</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="4">
         <v>652</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="4" spans="1:40">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4">
         <v>37566634</v>
@@ -1762,7 +1762,7 @@
         <v>202</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="4">
         <v>652</v>
@@ -1788,16 +1788,16 @@
     </row>
     <row r="5" spans="1:40">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4">
         <v>37566539</v>
@@ -1875,7 +1875,7 @@
         <v>90</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="4">
         <v>493</v>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="6" spans="1:40">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4">
         <v>37566428</v>
@@ -1988,7 +1988,7 @@
         <v>90</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF6" s="4">
         <v>467</v>
@@ -2014,16 +2014,16 @@
     </row>
     <row r="7" spans="1:40">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4">
         <v>37566051</v>
@@ -2101,7 +2101,7 @@
         <v>270</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7" s="4">
         <v>467</v>
@@ -2127,16 +2127,16 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4">
         <v>37566271</v>
@@ -2214,7 +2214,7 @@
         <v>90</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" s="4">
         <v>524</v>
@@ -2240,16 +2240,16 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4">
         <v>37564324</v>
@@ -2327,7 +2327,7 @@
         <v>135</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF9" s="4">
         <v>436</v>
@@ -2353,16 +2353,16 @@
     </row>
     <row r="10" spans="1:40">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4">
         <v>37564100</v>
@@ -2440,7 +2440,7 @@
         <v>135</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF10" s="4">
         <v>329</v>
@@ -2466,16 +2466,16 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4">
         <v>37564004</v>
@@ -2553,7 +2553,7 @@
         <v>157</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF11" s="4">
         <v>1044</v>
@@ -2579,16 +2579,16 @@
     </row>
     <row r="12" spans="1:40">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="4">
         <v>37563771</v>
@@ -2666,7 +2666,7 @@
         <v>315</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="4">
         <v>329</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="13" spans="1:40">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4">
         <v>37563234</v>
@@ -2779,7 +2779,7 @@
         <v>315</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF13" s="4">
         <v>546</v>
@@ -2805,16 +2805,16 @@
     </row>
     <row r="14" spans="1:40">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="4">
         <v>37561099</v>
@@ -2892,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF14" s="4">
         <v>922</v>
@@ -2918,16 +2918,16 @@
     </row>
     <row r="15" spans="1:40">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4">
         <v>37560633</v>
@@ -3005,7 +3005,7 @@
         <v>180</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF15" s="4">
         <v>819</v>
@@ -3031,16 +3031,16 @@
     </row>
     <row r="16" spans="1:40">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="4">
         <v>37559832</v>
@@ -3118,7 +3118,7 @@
         <v>135</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF16" s="4">
         <v>494</v>
@@ -3144,16 +3144,16 @@
     </row>
     <row r="17" spans="2:38">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="4">
         <v>37559344</v>
@@ -3231,7 +3231,7 @@
         <v>180</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF17" s="4">
         <v>494</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="18" spans="2:38">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="4">
         <v>37558756</v>
@@ -3344,7 +3344,7 @@
         <v>135</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18" s="4">
         <v>361</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="19" spans="2:38">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4">
         <v>37558409</v>
@@ -3457,7 +3457,7 @@
         <v>157</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="4">
         <v>361</v>
@@ -3483,16 +3483,16 @@
     </row>
     <row r="20" spans="2:38">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="4">
         <v>37558014</v>
@@ -3570,7 +3570,7 @@
         <v>270</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF20" s="4">
         <v>414</v>
@@ -3596,16 +3596,16 @@
     </row>
     <row r="21" spans="2:38">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="4">
         <v>37557858</v>
@@ -3683,7 +3683,7 @@
         <v>157</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF21" s="4">
         <v>495</v>
@@ -3709,16 +3709,16 @@
     </row>
     <row r="22" spans="2:38">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="4">
         <v>37557668</v>
@@ -3796,7 +3796,7 @@
         <v>135</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF22" s="4">
         <v>502</v>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="23" spans="2:38" ht="15" thickBot="1">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="6">
         <v>37557362</v>
@@ -3909,7 +3909,7 @@
         <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF23" s="6">
         <v>455</v>
@@ -3935,16 +3935,16 @@
     </row>
     <row r="24" spans="2:38">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24">
         <v>37556912</v>
@@ -4022,7 +4022,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF24">
         <v>429</v>
@@ -4048,16 +4048,16 @@
     </row>
     <row r="25" spans="2:38">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25">
         <v>37556598</v>
@@ -4135,7 +4135,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF25">
         <v>429</v>
@@ -4161,16 +4161,16 @@
     </row>
     <row r="26" spans="2:38">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>37556315</v>
@@ -4248,7 +4248,7 @@
         <v>180</v>
       </c>
       <c r="AE26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26">
         <v>483</v>
@@ -4274,16 +4274,16 @@
     </row>
     <row r="27" spans="2:38">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F27">
         <v>37555632</v>
@@ -4361,7 +4361,7 @@
         <v>247</v>
       </c>
       <c r="AE27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF27">
         <v>730</v>
@@ -4387,16 +4387,16 @@
     </row>
     <row r="28" spans="2:38">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28">
         <v>37554642</v>
@@ -4474,7 +4474,7 @@
         <v>337</v>
       </c>
       <c r="AE28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF28">
         <v>431</v>
@@ -4500,16 +4500,16 @@
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29">
         <v>37554313</v>
@@ -4587,7 +4587,7 @@
         <v>180</v>
       </c>
       <c r="AE29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF29">
         <v>416</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="30" spans="2:38">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30">
         <v>37553910</v>
@@ -4700,7 +4700,7 @@
         <v>157</v>
       </c>
       <c r="AE30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF30">
         <v>416</v>
@@ -4726,16 +4726,16 @@
     </row>
     <row r="31" spans="2:38">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>37552485</v>
@@ -4813,7 +4813,7 @@
         <v>270</v>
       </c>
       <c r="AE31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF31">
         <v>1184</v>
@@ -4839,16 +4839,16 @@
     </row>
     <row r="32" spans="2:38">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32">
         <v>37551303</v>
@@ -4926,7 +4926,7 @@
         <v>180</v>
       </c>
       <c r="AE32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF32">
         <v>435</v>
@@ -4952,16 +4952,16 @@
     </row>
     <row r="33" spans="2:38">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33">
         <v>37550869</v>
@@ -5039,7 +5039,7 @@
         <v>157</v>
       </c>
       <c r="AE33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF33">
         <v>391</v>
@@ -5065,16 +5065,16 @@
     </row>
     <row r="34" spans="2:38">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34">
         <v>37550569</v>
@@ -5152,7 +5152,7 @@
         <v>247</v>
       </c>
       <c r="AE34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF34">
         <v>391</v>
@@ -5178,16 +5178,16 @@
     </row>
     <row r="35" spans="2:38">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35">
         <v>37557952</v>
@@ -5265,7 +5265,7 @@
         <v>337</v>
       </c>
       <c r="AE35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF35">
         <v>462</v>
@@ -5291,16 +5291,16 @@
     </row>
     <row r="36" spans="2:38">
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36">
         <v>37558400</v>
@@ -5378,7 +5378,7 @@
         <v>67</v>
       </c>
       <c r="AE36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF36">
         <v>462</v>
@@ -5404,16 +5404,16 @@
     </row>
     <row r="37" spans="2:38">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37">
         <v>37559723</v>
@@ -5491,7 +5491,7 @@
         <v>67</v>
       </c>
       <c r="AE37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF37">
         <v>568</v>
@@ -5517,16 +5517,16 @@
     </row>
     <row r="38" spans="2:38">
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38">
         <v>37559474</v>
@@ -5604,7 +5604,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF38">
         <v>568</v>
@@ -5630,16 +5630,16 @@
     </row>
     <row r="39" spans="2:38">
       <c r="B39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39">
         <v>37558707</v>
@@ -5717,7 +5717,7 @@
         <v>337</v>
       </c>
       <c r="AE39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF39">
         <v>774</v>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="40" spans="2:38">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40">
         <v>37559315</v>
@@ -5773,7 +5773,7 @@
         <v>23.081177301957901</v>
       </c>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M40">
         <v>6.31</v>
@@ -5830,7 +5830,7 @@
         <v>67</v>
       </c>
       <c r="AE40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF40">
         <v>1525</v>
@@ -5856,16 +5856,16 @@
     </row>
     <row r="41" spans="2:38">
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41">
         <v>37556430</v>
@@ -5943,7 +5943,7 @@
         <v>337</v>
       </c>
       <c r="AE41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF41">
         <v>1640</v>
